--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2624222.426947477</v>
+        <v>2621204.836546541</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9330390.20263662</v>
+        <v>9330390.202636618</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>379.0867270238958</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>199.8692462101356</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.26583888007716</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>20.92041677519556</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>340.9873806407956</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>139.5676294884023</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>113.2870337730222</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>27.75921992324378</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>357.7945095910645</v>
       </c>
       <c r="D8" t="n">
-        <v>342.8970908569486</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,10 +1294,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686241</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.5906791667245</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>139.481853613415</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>114.930904319359</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>64.34190763938432</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>101.9166902817497</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>149.0799667719507</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560552</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>161.4046520073173</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>206.8064269214866</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>146.1854691670926</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2764,7 +2764,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750044</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>206.8064269214866</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.31687599864578</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>194.8026695426854</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>132.9222801333276</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>183.1796758467007</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>201.1710516606684</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>3.347695664763246</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,16 +3749,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>80.13869128251015</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229362</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>238.2336684417121</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>249.772794283128</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>847.844772492695</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>847.844772492695</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>847.844772492695</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>436.8588677030875</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2045.420119349963</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1655.280787374151</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>546.4805193761945</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>396.3638799638587</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1181.549686895097</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205144</v>
+        <v>2028.746545635231</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.28885893503</v>
+        <v>2028.746545635231</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.28885893503</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.149526959219</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>613.6976369609572</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>613.6976369609572</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>613.6976369609572</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>613.6976369609572</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>613.6976369609572</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W7" t="n">
-        <v>613.6976369609572</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X7" t="n">
-        <v>385.7080860629399</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.7080860629399</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447094</v>
+        <v>1584.314837422906</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066827</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>478.852290671381</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>478.852290671381</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2344.380435748107</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1970.914677487027</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511216</v>
+        <v>1970.914677487027</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430001</v>
+        <v>222.8791647482713</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150932</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220411</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.5573625732399</v>
+        <v>404.527629578511</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>646.6490309742562</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>646.6490309742562</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>496.5323915619205</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W13" t="n">
-        <v>1275.130855347408</v>
+        <v>874.6385818722736</v>
       </c>
       <c r="X13" t="n">
-        <v>1275.130855347408</v>
+        <v>646.6490309742562</v>
       </c>
       <c r="Y13" t="n">
-        <v>1275.130855347408</v>
+        <v>646.6490309742562</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.3089140050929</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,10 +5452,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
@@ -5470,16 +5470,16 @@
         <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>843.7395088768801</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X16" t="n">
-        <v>615.7499579788628</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y16" t="n">
-        <v>394.9573788353326</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5498,49 +5498,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1348.33044553573</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1124.545030325236</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>835.416391538794</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>1075.210845262961</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,22 +5741,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,16 +5765,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1335.881268530309</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1112.095853319815</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>822.9672145333731</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>568.2827263274862</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>278.8655562905255</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>4036.945405494735</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>3889.283315426964</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>3889.283315426964</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6215,40 +6215,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095317</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164473</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>4555.115143601279</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4850.224560916993</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6646,25 +6646,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347409</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1020.446367141522</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>731.0291971045613</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>503.0396462065439</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805484</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,19 +6701,19 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6777,16 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
         <v>2051.878056918008</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3607.06848749907</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="C34" t="n">
-        <v>3607.06848749907</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D34" t="n">
-        <v>3607.06848749907</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014294</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4664.084199738854</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.29878452836</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.170145741918</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V34" t="n">
-        <v>3896.48565753603</v>
+        <v>964.447598905683</v>
       </c>
       <c r="W34" t="n">
-        <v>3607.06848749907</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X34" t="n">
-        <v>3607.06848749907</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y34" t="n">
-        <v>3607.06848749907</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,19 +6947,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>4452.039182201071</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>4197.354693995184</v>
+        <v>782.7991340754432</v>
       </c>
       <c r="W37" t="n">
-        <v>3907.937523958223</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X37" t="n">
-        <v>3679.947973060206</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404653</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,10 +7172,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7333,10 +7333,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
         <v>779.0639759471194</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1495.534759785415</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1495.534759785415</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7397,43 +7397,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
@@ -7485,16 +7485,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M42" t="n">
         <v>1247.466478653857</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684899</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684899</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
         <v>779.0639759471194</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1258.27620142486</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>1003.591713218973</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W43" t="n">
-        <v>714.1745431820127</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="X43" t="n">
-        <v>486.1849922839954</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="Y43" t="n">
-        <v>265.3924131404652</v>
+        <v>755.1831334811264</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231265</v>
@@ -7679,13 +7679,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L45" t="n">
-        <v>709.4934589365137</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.813592216475</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
         <v>779.0639759471194</v>
@@ -7831,25 +7831,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>1298.996260473455</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>1046.700508672316</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>818.7109577742983</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
   </sheetData>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783527</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298194</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>176.7176547498441</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9954,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229572</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208047</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10434,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229574</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229574</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,25 +11379,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.24130101521277</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>6.952109033154159</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23476,10 +23476,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>52.31591677926882</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>154.2427457127105</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>65.3301308168781</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>48.84084321165253</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>36.51615797628597</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>14.74113413690262</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>140.3375291694984</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.3938331833848</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24886,13 +24886,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709071</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.267777353449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,13 +25081,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25120,25 +25120,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>3.118140440917813</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>119.2153631905004</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>50.96659166315962</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>106.6166567390295</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>68.4767817357022</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25834,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>48.00368395686527</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26071,19 +26071,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>36.75020405346299</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796315.9954062811</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796315.9954062811</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26314,19 @@
         <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065633</v>
+      </c>
+      <c r="F2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>586543.5896065626</v>
-      </c>
-      <c r="G2" t="n">
-        <v>586543.5896065627</v>
       </c>
       <c r="H2" t="n">
         <v>586543.5896065629</v>
@@ -26335,22 +26335,22 @@
         <v>586543.5896065629</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="L2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="N2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="P2" t="n">
         <v>586543.589606563</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430942</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430943</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143899</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143901</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213405.3736214966</v>
+        <v>-213820.5881309638</v>
       </c>
       <c r="C6" t="n">
-        <v>376562.5055930479</v>
+        <v>376147.2910835806</v>
       </c>
       <c r="D6" t="n">
-        <v>376562.5055930479</v>
+        <v>376147.2910835807</v>
       </c>
       <c r="E6" t="n">
-        <v>-45315.27347335928</v>
+        <v>-45649.44244048916</v>
       </c>
       <c r="F6" t="n">
-        <v>479844.7630035365</v>
+        <v>479510.5940364072</v>
       </c>
       <c r="G6" t="n">
-        <v>479844.7630035366</v>
+        <v>479510.5940364069</v>
       </c>
       <c r="H6" t="n">
-        <v>479844.7630035367</v>
+        <v>479510.5940364072</v>
       </c>
       <c r="I6" t="n">
-        <v>479844.7630035367</v>
+        <v>479510.5940364071</v>
       </c>
       <c r="J6" t="n">
-        <v>303421.5438109435</v>
+        <v>303087.3748438142</v>
       </c>
       <c r="K6" t="n">
-        <v>479844.7630035368</v>
+        <v>479510.5940364071</v>
       </c>
       <c r="L6" t="n">
-        <v>479844.7630035369</v>
+        <v>479510.5940364073</v>
       </c>
       <c r="M6" t="n">
-        <v>345043.7477696998</v>
+        <v>344709.5788025702</v>
       </c>
       <c r="N6" t="n">
-        <v>479844.7630035368</v>
+        <v>479510.5940364071</v>
       </c>
       <c r="O6" t="n">
-        <v>479844.7630035368</v>
+        <v>479510.5940364076</v>
       </c>
       <c r="P6" t="n">
-        <v>479844.7630035368</v>
+        <v>479510.5940364074</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26741,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26790,16 +26790,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>34.69744299689921</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>169.8618544683334</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>120.168123766492</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>197.6642365768992</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>24.28551113021194</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27667,22 +27667,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>188.1846289817326</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>33.37815820713563</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>197.9504354657934</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>7.478382179943083</v>
       </c>
       <c r="D8" t="n">
-        <v>11.78595076373432</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.302329278901041e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,40 +31519,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33266,19 +33266,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33287,13 +33287,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33430,13 +33430,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33451,7 +33451,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,10 +33567,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33579,10 +33579,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33591,7 +33591,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,13 +33603,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33667,13 +33667,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33688,7 +33688,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33743,7 +33743,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,10 +33804,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33816,10 +33816,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33828,7 +33828,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,13 +33840,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33904,13 +33904,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33925,7 +33925,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33980,7 +33980,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,10 +34041,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34053,10 +34053,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34065,7 +34065,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,13 +34077,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34141,13 +34141,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
@@ -34162,7 +34162,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34217,7 +34217,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813463</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,10 +34278,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
         <v>45.03122946298631</v>
@@ -34290,10 +34290,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
@@ -34302,7 +34302,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,13 +34314,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
         <v>34.18755300444946</v>
@@ -34378,13 +34378,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647497</v>
@@ -34399,7 +34399,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34454,7 +34454,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813463</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,10 +34515,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
         <v>45.03122946298631</v>
@@ -34527,10 +34527,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
         <v>234.725964217132</v>
@@ -34539,7 +34539,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,13 +34551,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530451</v>
@@ -35191,7 +35191,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262129</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>487.1420318003106</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523295</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36996,19 +36996,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37078,19 +37078,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879393</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734238</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37233,7 +37233,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056037</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37312,22 +37312,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37470,7 +37470,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056037</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37552,19 +37552,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
@@ -37707,7 +37707,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056037</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37789,19 +37789,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879393</v>
@@ -37865,19 +37865,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734238</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
@@ -37944,7 +37944,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056037</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38026,19 +38026,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>425.9753597058689</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
@@ -38181,7 +38181,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056037</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2696734.506211346</v>
+        <v>2689717.491319635</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>97.60909373830044</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>28.1011571445228</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>251.5865045872828</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.178315471687742</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>67.06388118995307</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>153.7030503653501</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>135.40953526816</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>184.5331443810496</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.4120358099645</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>28.2529396129481</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.96451678969</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498027</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>58.99180592869621</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>62.22551331319344</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634817</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113168</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.50096938092109</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>127.4321567831319</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>157.9033880625846</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>108.6200406500438</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>102.7916420351607</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>75.57729816500343</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>22.71958750778575</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>146.6449495584719</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>193.6731098073969</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274014</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>145.3517394623324</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>111.2944539985319</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.1239851026827</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>85.18827657449981</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>152.6403606765793</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>632.3182666762915</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762915</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2367.347869682784</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2113.586084320876</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1782.523196977305</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.523196977305</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1409.057438716225</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.918106740413</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1975.94687169884</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
         <v>1363.553390680693</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2695.958873370053</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2519.781385684223</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2301.146718656286</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2047.384933294377</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1716.322045950807</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.086203674652</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
-        <v>1975.94687169884</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.80799380017</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C7" t="n">
-        <v>361.80799380017</v>
+        <v>167.3408003844959</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>167.3408003844959</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>167.3408003844959</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>167.3408003844959</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>167.3408003844959</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>167.3408003844959</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>543.4564586304098</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>543.4564586304098</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W7" t="n">
-        <v>543.4564586304098</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X7" t="n">
-        <v>543.4564586304098</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y7" t="n">
-        <v>543.4564586304098</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2251.981069572905</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C8" t="n">
-        <v>1883.018552632494</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D8" t="n">
-        <v>1524.752854025743</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1138.964601427499</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548717</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548717</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548717</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548717</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572905</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.489254012808</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>415.489254012808</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D10" t="n">
-        <v>415.489254012808</v>
+        <v>175.5713008203286</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>175.5713008203286</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>670.1737422186949</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>415.489254012808</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155876</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>485.4047026089406</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>732.1698305154048</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1039.489963795367</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>671.7300455988212</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C13" t="n">
-        <v>671.7300455988212</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>671.7300455988212</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>731.31772835508</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>671.7300455988212</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>671.7300455988212</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y13" t="n">
-        <v>671.7300455988212</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,7 +5293,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899127</v>
@@ -5302,28 +5302,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>498.9056400965599</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>874.927113122792</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V16" t="n">
-        <v>620.2426249169051</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>620.2426249169051</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>392.2530740188878</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.4604948753577</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5536,25 +5536,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.505047571597</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1333.825180851558</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>822.9089152986055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.055751909234</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>1164.055751909234</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>1004.557380128845</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>1004.557380128845</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488384</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>898.7925182488384</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>609.3753482118777</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,19 +6065,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1564.731711769082</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
         <v>2051.878056918008</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3989.585195922476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3989.585195922476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3989.585195922476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3989.585195922476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3842.695248424566</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3674.519926744386</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4749.779469576119</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>4460.650830789677</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>4460.650830789677</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>4171.233660752716</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>4171.233660752716</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>4171.233660752716</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,34 +6205,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372321</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3540.192194764782</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>3870.054822428815</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4253.421048821321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557068</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>604.1452103957562</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>435.2090274678493</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>285.0923880555135</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6399,37 +6399,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473451</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262957</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262957</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.210845262957</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>785.7936752259959</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>785.7936752259959</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="Y28" t="n">
-        <v>785.7936752259959</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,25 +6457,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4040.160816087027</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3871.22463315912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4712.728361339068</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4488.942946128574</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4488.942946128574</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>4488.942946128574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>4488.942946128574</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>4260.953395230557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4040.160816087027</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>732.1698305154059</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3720.806624707064</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3720.806624707064</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4326.074044281177</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4326.074044281177</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>4130.444640435321</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>3902.455089537304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3902.455089537304</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822456</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -6961,28 +6961,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>745.6707680030239</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>355.5716216891792</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7131,16 +7131,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>986.0022165609664</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>986.0022165609664</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>758.0126656629491</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>537.2200865194189</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7201,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>2786.879505108311</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>3033.644633014775</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>3484.747546292012</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>4289.159124556162</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1097.368991368903</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>807.9518213319425</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>579.9622704339251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805459</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141288</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.9829531089972</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>527.0467701810903</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>527.0467701810903</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>527.0467701810903</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.0467701810903</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>358.8714485009109</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.4534400488542</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1387.841167119728</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1098.423997082767</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.423997082767</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>877.6314179392369</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3446.276123502708</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>4250.687701766859</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4530.227766985557</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4735.250247767766</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>761.0055017299131</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C46" t="n">
-        <v>761.0055017299131</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D46" t="n">
-        <v>610.8888623175774</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E46" t="n">
-        <v>462.9757687351843</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F46" t="n">
-        <v>462.9757687351843</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G46" t="n">
-        <v>294.8004470550048</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
         <v>208.7516828383384</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>921.0286627613651</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>666.3441745554783</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.787631771461</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="X46" t="n">
-        <v>981.7980808734433</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.0055017299131</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719076</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>199.6230805871083</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>306.1147370139961</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>73.64859338270662</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>158.8724419039327</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>104.8749102765749</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10433,25 +10433,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>199.6230805871097</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>87.16935584025435</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,19 +10904,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>145.2351313103787</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11147,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>38.86002301949767</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>227.5311924078948</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>156.3591400389014</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.3310108010162</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>158.8051956154454</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>67.80626732645251</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>117.0896147389933</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>46.12218633237538</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>70.85666448156574</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>202.9900678812514</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>51.27586042513138</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>92.84988852919412</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>21.8950816362954</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>140.8431893252961</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2952603615893423</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>63.72555179303632</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.596991721998</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796315.9954062811</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="H2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="M2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="N2" t="n">
         <v>586543.5896065627</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065629</v>
       </c>
       <c r="O2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.669621439</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26459,7 +26459,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213820.5881309643</v>
+        <v>-213820.5881309638</v>
       </c>
       <c r="C6" t="n">
-        <v>376147.2910835805</v>
+        <v>376147.2910835809</v>
       </c>
       <c r="D6" t="n">
-        <v>376147.2910835808</v>
+        <v>376147.2910835806</v>
       </c>
       <c r="E6" t="n">
-        <v>-45649.44244048845</v>
+        <v>-46624.03370021041</v>
       </c>
       <c r="F6" t="n">
-        <v>479510.5940364073</v>
+        <v>478536.0027766852</v>
       </c>
       <c r="G6" t="n">
-        <v>479510.594036407</v>
+        <v>478536.0027766854</v>
       </c>
       <c r="H6" t="n">
-        <v>479510.5940364072</v>
+        <v>478536.0027766855</v>
       </c>
       <c r="I6" t="n">
-        <v>479510.5940364074</v>
+        <v>478536.0027766855</v>
       </c>
       <c r="J6" t="n">
-        <v>303087.3748438144</v>
+        <v>302112.783584093</v>
       </c>
       <c r="K6" t="n">
-        <v>479510.5940364068</v>
+        <v>478536.0027766855</v>
       </c>
       <c r="L6" t="n">
-        <v>479510.594036407</v>
+        <v>478536.0027766855</v>
       </c>
       <c r="M6" t="n">
-        <v>344709.5788025699</v>
+        <v>343734.9875428483</v>
       </c>
       <c r="N6" t="n">
-        <v>479510.5940364072</v>
+        <v>478536.0027766854</v>
       </c>
       <c r="O6" t="n">
-        <v>479510.5940364071</v>
+        <v>478536.0027766854</v>
       </c>
       <c r="P6" t="n">
-        <v>479510.5940364073</v>
+        <v>478536.0027766855</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>118.8392266193573</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>118.3328055020464</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>123.254417728535</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>113.6863871837248</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>53.30008710312399</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>67.90174060238519</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>132.5788238766276</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>219.273506352523</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>222.3429013606619</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.00901221296672</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>258.0289346290296</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.089769544445776e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28383,19 +28383,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-5.925249708871845e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624588</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>350.1985191750476</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>237.7447944281936</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>616.5391140644624</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.8253897034981</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35971,16 +35971,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>406.8431667807196</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
@@ -36123,7 +36123,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36448,7 +36448,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>492.0670153019457</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515205989</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>448.880785543134</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>336.4270607962786</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>455.6595083608449</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37867,19 +37867,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>126.8730558045718</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2689717.491319635</v>
+        <v>2694656.754168667</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>270.6226856612333</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>264.1523807176752</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.1011571445228</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>73.37668880174277</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.178315471687742</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>131.0452991340061</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>67.06388118995307</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>154.8229679689709</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>135.40953526816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>60.46179076613138</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>120.4120358099645</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>218.797736824674</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174138</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>8.070639042239931</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>62.22551331319344</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896908</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113168</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>127.4321567831319</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>66.90445977359197</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>140.1188684221747</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>206.806426921486</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>160.8722505808164</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>202.3489524013662</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>22.71958750778575</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>162.1485565047092</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274014</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.5269768002176</v>
+        <v>188.1607094910707</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>38.20552045454374</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>152.6403606765793</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1254.177966138804</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>885.2154491983927</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>885.2154491983927</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>885.2154491983927</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>474.2295444087851</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>654.0111167299266</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1359.546482223454</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2695.958873370053</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2519.781385684223</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.146718656286</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="U5" t="n">
-        <v>2047.384933294377</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="V5" t="n">
-        <v>1716.322045950807</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="W5" t="n">
-        <v>1363.553390680693</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.553390680693</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>336.2769833124028</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C7" t="n">
-        <v>167.3408003844959</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>167.3408003844959</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>167.3408003844959</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>167.3408003844959</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3408003844959</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>167.3408003844959</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124028</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="W7" t="n">
-        <v>336.2769833124028</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="X7" t="n">
-        <v>336.2769833124028</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="Y7" t="n">
-        <v>336.2769833124028</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.883827626212</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1154.883827626212</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.883827626212</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4898,10 +4898,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="C10" t="n">
-        <v>325.6879402326643</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D10" t="n">
-        <v>175.5713008203286</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E10" t="n">
-        <v>175.5713008203286</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>507.1211692320162</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5035,16 +5035,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,25 +5059,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>710.3120936331045</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1490.764109909175</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1201.635471122733</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>946.9509829168464</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150548</v>
+        <v>429.5442619818685</v>
       </c>
       <c r="Y13" t="n">
-        <v>891.9605584633442</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="14">
@@ -5266,31 +5266,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805461</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5360,19 +5360,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>498.9056400965599</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>745.6707680030239</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5466,16 +5466,16 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>835.416391538794</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X16" t="n">
         <v>318.0096706038159</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5509,25 +5509,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>557.8041243279777</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8679414000708</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>238.751301987735</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5673,52 +5673,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241912</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688026</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799318</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471145</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974662</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.99626047345</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262956</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.210845262956</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>1075.210845262956</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>785.793675225995</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>557.8041243279777</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>557.8041243279777</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822457</v>
@@ -5758,13 +5758,13 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1336.419047748997</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>819.0123268140193</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,28 +5974,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>577.1966583249754</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6232,7 +6232,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>931.8655340243621</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,19 +6712,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>709.4512536188989</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822456</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7022,13 +7022,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
         <v>2331.418122136705</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
@@ -7262,10 +7262,10 @@
         <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O39" t="n">
         <v>2331.418122136705</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>916.5117087630043</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>916.5117087630043</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>916.5117087630043</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,13 +7490,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
         <v>1247.466478653857</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>921.0286627613651</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>666.3441745554783</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>376.9270045185177</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9008,28 +9008,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>87.16935584025435</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,16 +10670,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>124.3400780863228</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>124.3400780863228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>213.4769220161493</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>156.3591400389014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>158.8051956154454</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>158.8051956154452</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>6.315094224394471</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>103.0576765518773</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>79.43092547709136</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>91.2653927430116</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>16.23570095072856</v>
       </c>
     </row>
     <row r="26">
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>202.9900678812514</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>113.0824928447106</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>17.68342367722806</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642756</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,7 +25365,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.0576765518772</v>
+        <v>30.42394386102404</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>248.3174778820473</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.596991721998</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="F2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="I2" t="n">
         <v>586543.5896065626</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="K2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="H2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="K2" t="n">
-        <v>586543.5896065629</v>
-      </c>
       <c r="L2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065625</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065625</v>
       </c>
       <c r="N2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="O2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="P2" t="n">
         <v>586543.5896065627</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.5896065629</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,19 +26377,19 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.413517661587885e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.66962143906</v>
+      </c>
+      <c r="F4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15045.66962143914</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213820.5881309638</v>
+        <v>-213820.5881309641</v>
       </c>
       <c r="C6" t="n">
-        <v>376147.2910835809</v>
+        <v>376147.2910835805</v>
       </c>
       <c r="D6" t="n">
-        <v>376147.2910835806</v>
+        <v>376147.2910835804</v>
       </c>
       <c r="E6" t="n">
-        <v>-46624.03370021041</v>
+        <v>-45746.90156646091</v>
       </c>
       <c r="F6" t="n">
-        <v>478536.0027766852</v>
+        <v>479413.134910435</v>
       </c>
       <c r="G6" t="n">
-        <v>478536.0027766854</v>
+        <v>479413.1349104352</v>
       </c>
       <c r="H6" t="n">
-        <v>478536.0027766855</v>
+        <v>479413.1349104349</v>
       </c>
       <c r="I6" t="n">
-        <v>478536.0027766855</v>
+        <v>479413.1349104349</v>
       </c>
       <c r="J6" t="n">
-        <v>302112.783584093</v>
+        <v>302989.9157178421</v>
       </c>
       <c r="K6" t="n">
-        <v>478536.0027766855</v>
+        <v>479413.1349104349</v>
       </c>
       <c r="L6" t="n">
-        <v>478536.0027766855</v>
+        <v>479413.1349104347</v>
       </c>
       <c r="M6" t="n">
-        <v>343734.9875428483</v>
+        <v>344612.1196765972</v>
       </c>
       <c r="N6" t="n">
-        <v>478536.0027766854</v>
+        <v>479413.1349104351</v>
       </c>
       <c r="O6" t="n">
-        <v>478536.0027766854</v>
+        <v>479413.1349104348</v>
       </c>
       <c r="P6" t="n">
-        <v>478536.0027766855</v>
+        <v>479413.1349104349</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>111.3076844110284</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>149.6317893031198</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>118.3328055020464</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>213.1463095348482</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>53.30008710312399</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>43.37041367496545</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>67.90174060238519</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>97.31467535485714</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>219.273506352523</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>155.9865295915264</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.00901221296672</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>6.237368633410227</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-8.139557993131504e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-3.241697906780928e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29927,7 +29927,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-3.582082778545252e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>237.7447944281936</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556098</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>434.7644551367891</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37630,19 +37630,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>434.7644551367891</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37867,19 +37867,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
